--- a/results/FrequencyTables/26581162_sg101R.xlsx
+++ b/results/FrequencyTables/26581162_sg101R.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.045859872611465</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0522292993630573</v>
       </c>
       <c r="D2">
-        <v>0.969387755102041</v>
+        <v>0.973248407643312</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00382165605095541</v>
       </c>
       <c r="F2">
-        <v>0.0102040816326531</v>
+        <v>0.0178343949044586</v>
       </c>
       <c r="G2">
-        <v>0.0204081632653061</v>
+        <v>0.0140127388535032</v>
       </c>
       <c r="H2">
-        <v>0.0204081632653061</v>
+        <v>0.00254777070063694</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.979591836734694</v>
+        <v>0.974522292993631</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00254777070063694</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0089171974522293</v>
       </c>
       <c r="M2">
-        <v>0.0510204081632653</v>
+        <v>0.0292993630573248</v>
       </c>
       <c r="N2">
-        <v>0.591836734693878</v>
+        <v>0.629299363057325</v>
       </c>
       <c r="O2">
-        <v>0.0204081632653061</v>
+        <v>0.0114649681528662</v>
       </c>
       <c r="P2">
-        <v>0.0306122448979592</v>
+        <v>0.021656050955414</v>
       </c>
       <c r="Q2">
-        <v>0.969387755102041</v>
+        <v>0.971974522292994</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00636942675159236</v>
       </c>
       <c r="S2">
-        <v>0.959183673469388</v>
+        <v>0.964331210191083</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00254777070063694</v>
       </c>
       <c r="U2">
-        <v>0.816326530612245</v>
+        <v>0.793630573248408</v>
       </c>
       <c r="V2">
-        <v>0.0204081632653061</v>
+        <v>0.0101910828025478</v>
       </c>
       <c r="W2">
-        <v>0.0102040816326531</v>
+        <v>0.00127388535031847</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0089171974522293</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,16 +539,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.938775510204082</v>
+        <v>0.921019108280255</v>
       </c>
       <c r="C3">
-        <v>0.979591836734694</v>
+        <v>0.932484076433121</v>
       </c>
       <c r="D3">
-        <v>0.0204081632653061</v>
+        <v>0.00509554140127389</v>
       </c>
       <c r="E3">
-        <v>0.0204081632653061</v>
+        <v>0.00254777070063694</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -557,16 +557,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.979591836734694</v>
+        <v>0.997452229299363</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.998726114649682</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00127388535031847</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00127388535031847</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -575,37 +575,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0102040816326531</v>
+        <v>0.0636942675159236</v>
       </c>
       <c r="O3">
-        <v>0.26530612244898</v>
+        <v>0.361783439490446</v>
       </c>
       <c r="P3">
-        <v>0.836734693877551</v>
+        <v>0.896815286624204</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00509554140127389</v>
       </c>
       <c r="R3">
-        <v>0.0102040816326531</v>
+        <v>0.0114649681528662</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00127388535031847</v>
       </c>
       <c r="T3">
-        <v>0.0306122448979592</v>
+        <v>0.0140127388535032</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.163265306122449</v>
+        <v>0.185987261146497</v>
       </c>
       <c r="W3">
-        <v>0.948979591836735</v>
+        <v>0.974522292993631</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.987261146496815</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,22 +613,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0204081632653061</v>
+        <v>0.0127388535031847</v>
       </c>
       <c r="C4">
-        <v>0.0204081632653061</v>
+        <v>0.00509554140127389</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00636942675159236</v>
       </c>
       <c r="E4">
-        <v>0.979591836734694</v>
+        <v>0.992356687898089</v>
       </c>
       <c r="F4">
-        <v>0.989795918367347</v>
+        <v>0.982165605095541</v>
       </c>
       <c r="G4">
-        <v>0.979591836734694</v>
+        <v>0.984713375796178</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -637,49 +637,49 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00509554140127389</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.993630573248408</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.989808917197452</v>
       </c>
       <c r="M4">
-        <v>0.948979591836735</v>
+        <v>0.969426751592357</v>
       </c>
       <c r="N4">
-        <v>0.397959183673469</v>
+        <v>0.304458598726115</v>
       </c>
       <c r="O4">
-        <v>0.0102040816326531</v>
+        <v>0.0114649681528662</v>
       </c>
       <c r="P4">
-        <v>0.0204081632653061</v>
+        <v>0.0089171974522293</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00764331210191083</v>
       </c>
       <c r="R4">
-        <v>0.989795918367347</v>
+        <v>0.975796178343949</v>
       </c>
       <c r="S4">
-        <v>0.0306122448979592</v>
+        <v>0.0229299363057325</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00764331210191083</v>
       </c>
       <c r="U4">
-        <v>0.0408163265306122</v>
+        <v>0.0165605095541401</v>
       </c>
       <c r="V4">
-        <v>0.0306122448979592</v>
+        <v>0.021656050955414</v>
       </c>
       <c r="W4">
-        <v>0.0408163265306122</v>
+        <v>0.0229299363057325</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.00127388535031847</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,16 +687,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0408163265306122</v>
+        <v>0.0191082802547771</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0101910828025478</v>
       </c>
       <c r="D5">
-        <v>0.0102040816326531</v>
+        <v>0.0152866242038217</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00127388535031847</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00127388535031847</v>
       </c>
       <c r="J5">
-        <v>0.0204081632653061</v>
+        <v>0.0191082802547771</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00254777070063694</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -723,37 +723,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00254777070063694</v>
       </c>
       <c r="O5">
-        <v>0.704081632653061</v>
+        <v>0.615286624203822</v>
       </c>
       <c r="P5">
-        <v>0.112244897959184</v>
+        <v>0.0700636942675159</v>
       </c>
       <c r="Q5">
-        <v>0.0306122448979592</v>
+        <v>0.0140127388535032</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00636942675159236</v>
       </c>
       <c r="S5">
-        <v>0.0102040816326531</v>
+        <v>0.0114649681528662</v>
       </c>
       <c r="T5">
-        <v>0.969387755102041</v>
+        <v>0.975796178343949</v>
       </c>
       <c r="U5">
-        <v>0.142857142857143</v>
+        <v>0.189808917197452</v>
       </c>
       <c r="V5">
-        <v>0.785714285714286</v>
+        <v>0.782165605095541</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00254777070063694</v>
       </c>
     </row>
   </sheetData>
